--- a/data/trans_orig/P70D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E50B262C-2E46-4032-9B47-E2D30BD01D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AFDA60F-3056-4CC9-A060-93072FE7A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{814409C6-F9AA-411B-AAF8-660594C28A11}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{398E9A49-8E9B-45B9-85EF-CB5A8C8B2A44}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="293">
   <si>
     <t>Población según su autopercepción de su capacidad laboral actual en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -71,829 +71,847 @@
     <t>28,54%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>36,53%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
   </si>
   <si>
     <t>23,05%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1308,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81F30C-6A61-4DF7-86C7-04C31612FDEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BB34C4-5262-4424-B4FF-40B2075B08B5}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1759,7 +1777,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1768,13 +1786,13 @@
         <v>1753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,13 +1807,13 @@
         <v>907</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1804,13 +1822,13 @@
         <v>591</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1819,13 +1837,13 @@
         <v>1499</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,10 +1861,10 @@
         <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1861,7 +1879,7 @@
         <v>56</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1870,13 +1888,13 @@
         <v>678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,13 +1909,13 @@
         <v>935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1912,7 +1930,7 @@
         <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1921,13 +1939,13 @@
         <v>1615</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1960,13 @@
         <v>926</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1960,10 +1978,10 @@
         <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1972,13 +1990,13 @@
         <v>926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +2011,13 @@
         <v>132797</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="7">
         <v>120</v>
@@ -2008,13 +2026,13 @@
         <v>88444</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M15" s="7">
         <v>261</v>
@@ -2023,18 +2041,18 @@
         <v>221241</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2046,13 +2064,13 @@
         <v>450972</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>357</v>
@@ -2256,7 +2274,7 @@
         <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -2265,13 +2283,13 @@
         <v>21788</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -2280,13 +2298,13 @@
         <v>53969</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,13 +2319,13 @@
         <v>6591</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -2316,13 +2334,13 @@
         <v>15492</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -2331,13 +2349,13 @@
         <v>22083</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,13 +2370,13 @@
         <v>3384</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2367,13 +2385,13 @@
         <v>3913</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2382,13 +2400,13 @@
         <v>7296</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,13 +2421,13 @@
         <v>2671</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2418,13 +2436,13 @@
         <v>3461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2433,13 +2451,13 @@
         <v>6132</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,10 +2475,10 @@
         <v>56</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2469,13 +2487,13 @@
         <v>4056</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2484,13 +2502,13 @@
         <v>4056</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2523,13 @@
         <v>1708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2520,13 +2538,13 @@
         <v>1470</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2535,13 +2553,13 @@
         <v>3178</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2574,13 @@
         <v>3991</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2571,13 +2589,13 @@
         <v>804</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2586,13 +2604,13 @@
         <v>4796</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2625,13 @@
         <v>1234883</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="7">
         <v>1265</v>
@@ -2622,13 +2640,13 @@
         <v>943271</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M27" s="7">
         <v>2358</v>
@@ -2637,18 +2655,18 @@
         <v>2178154</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2660,13 +2678,13 @@
         <v>164431</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H28" s="7">
         <v>202</v>
@@ -2675,13 +2693,13 @@
         <v>162930</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>347</v>
@@ -2690,13 +2708,13 @@
         <v>327361</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2729,13 @@
         <v>129879</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>193</v>
@@ -2726,13 +2744,13 @@
         <v>135315</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>321</v>
@@ -2741,13 +2759,13 @@
         <v>265194</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2780,13 @@
         <v>128366</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>192</v>
@@ -2777,13 +2795,13 @@
         <v>129276</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="M30" s="7">
         <v>320</v>
@@ -2792,13 +2810,13 @@
         <v>257642</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2831,13 @@
         <v>25193</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>32</v>
@@ -2828,13 +2846,13 @@
         <v>21666</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>55</v>
@@ -2843,13 +2861,13 @@
         <v>46860</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2882,13 @@
         <v>12901</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -2879,13 +2897,13 @@
         <v>11354</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -2894,13 +2912,13 @@
         <v>24255</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2933,13 @@
         <v>4448</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -2930,13 +2948,13 @@
         <v>7218</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M33" s="7">
         <v>11</v>
@@ -2945,13 +2963,13 @@
         <v>11666</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2984,13 @@
         <v>917</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -2981,10 +2999,10 @@
         <v>2033</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>226</v>
@@ -2996,13 +3014,13 @@
         <v>2950</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>83</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,10 +3038,10 @@
         <v>56</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3032,13 +3050,13 @@
         <v>1978</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -3047,13 +3065,13 @@
         <v>1978</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,10 +3089,10 @@
         <v>56</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3083,13 +3101,13 @@
         <v>652</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3098,13 +3116,13 @@
         <v>652</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>230</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,10 +3140,10 @@
         <v>56</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3137,10 +3155,10 @@
         <v>56</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3152,10 +3170,10 @@
         <v>56</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,10 +3191,10 @@
         <v>56</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3188,10 +3206,10 @@
         <v>56</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3203,10 +3221,10 @@
         <v>56</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3239,13 @@
         <v>466135</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H39" s="7">
         <v>650</v>
@@ -3236,13 +3254,13 @@
         <v>472423</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M39" s="7">
         <v>1087</v>
@@ -3251,13 +3269,13 @@
         <v>938558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3292,13 @@
         <v>653302</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H40" s="7">
         <v>593</v>
@@ -3289,13 +3307,13 @@
         <v>482673</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M40" s="7">
         <v>1179</v>
@@ -3304,13 +3322,13 @@
         <v>1135975</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3343,13 @@
         <v>523775</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H41" s="7">
         <v>520</v>
@@ -3340,13 +3358,13 @@
         <v>390291</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M41" s="7">
         <v>962</v>
@@ -3355,13 +3373,13 @@
         <v>914066</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3394,13 @@
         <v>460457</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H42" s="7">
         <v>647</v>
@@ -3391,13 +3409,13 @@
         <v>432100</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M42" s="7">
         <v>1098</v>
@@ -3406,13 +3424,13 @@
         <v>892557</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3445,13 @@
         <v>115082</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H43" s="7">
         <v>153</v>
@@ -3442,13 +3460,13 @@
         <v>105307</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>120</v>
+        <v>266</v>
       </c>
       <c r="M43" s="7">
         <v>265</v>
@@ -3457,13 +3475,13 @@
         <v>220389</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3496,13 @@
         <v>51836</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>267</v>
+        <v>87</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H44" s="7">
         <v>55</v>
@@ -3493,13 +3511,13 @@
         <v>40078</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M44" s="7">
         <v>106</v>
@@ -3508,13 +3526,13 @@
         <v>91914</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3547,13 @@
         <v>12852</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H45" s="7">
         <v>36</v>
@@ -3544,13 +3562,13 @@
         <v>32692</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M45" s="7">
         <v>48</v>
@@ -3562,10 +3580,10 @@
         <v>55</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>47</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3598,13 @@
         <v>5371</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="H46" s="7">
         <v>10</v>
@@ -3595,13 +3613,13 @@
         <v>6628</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>64</v>
+        <v>286</v>
       </c>
       <c r="M46" s="7">
         <v>15</v>
@@ -3610,13 +3628,13 @@
         <v>12000</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>277</v>
+        <v>171</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3649,13 @@
         <v>3578</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>279</v>
+        <v>167</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -3646,13 +3664,13 @@
         <v>6030</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M47" s="7">
         <v>14</v>
@@ -3661,13 +3679,13 @@
         <v>9609</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,10 +3703,10 @@
         <v>56</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="H48" s="7">
         <v>8</v>
@@ -3697,13 +3715,13 @@
         <v>5386</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>277</v>
+        <v>171</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>282</v>
+        <v>69</v>
       </c>
       <c r="M48" s="7">
         <v>8</v>
@@ -3712,13 +3730,13 @@
         <v>5386</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P48" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3751,13 @@
         <v>2644</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="H49" s="7">
         <v>3</v>
@@ -3748,13 +3766,13 @@
         <v>2149</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="M49" s="7">
         <v>6</v>
@@ -3763,13 +3781,13 @@
         <v>4793</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3802,13 @@
         <v>4917</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>284</v>
+        <v>154</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -3799,13 +3817,13 @@
         <v>804</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
@@ -3814,13 +3832,13 @@
         <v>5721</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3853,13 @@
         <v>1833815</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H51" s="7">
         <v>2035</v>
@@ -3850,13 +3868,13 @@
         <v>1504139</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M51" s="7">
         <v>3706</v>
@@ -3865,18 +3883,18 @@
         <v>3337954</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AFDA60F-3056-4CC9-A060-93072FE7A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{314BF22C-C9F6-42FE-9A03-5FBB474144B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{398E9A49-8E9B-45B9-85EF-CB5A8C8B2A44}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{391E064E-9F24-477B-AA3B-B85AF2A671A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BB34C4-5262-4424-B4FF-40B2075B08B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76E9860-8194-44F9-B6A2-0DDC62847934}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{314BF22C-C9F6-42FE-9A03-5FBB474144B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB66E5D2-73AD-4985-A283-E5E909B4CB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{391E064E-9F24-477B-AA3B-B85AF2A671A4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2EC04D78-3B4C-4C07-A88D-21DE5C3FE5E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="287">
   <si>
     <t>Población según su autopercepción de su capacidad laboral actual en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -71,136 +71,136 @@
     <t>28,54%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>36,53%</t>
   </si>
   <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
   </si>
   <si>
     <t>23,05%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -209,55 +209,58 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>5,15%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,07%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
+    <t>4,57%</t>
+  </si>
+  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,99%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,46%</t>
+    <t>3,62%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>0%</t>
@@ -272,25 +275,25 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>1,58%</t>
@@ -299,7 +302,7 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -311,607 +314,586 @@
     <t>36,52%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>31,58%</t>
   </si>
   <si>
     <t>31,11%</t>
   </si>
   <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
   </si>
   <si>
     <t>34,18%</t>
   </si>
   <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
   </si>
   <si>
     <t>25,26%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>22,96%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>29,94%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,24%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1326,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76E9860-8194-44F9-B6A2-0DDC62847934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBF9B58-4ED6-4CB4-9E2E-061705C7D87C}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1777,7 +1759,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1786,13 +1768,13 @@
         <v>1753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,13 +1789,13 @@
         <v>907</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1822,13 +1804,13 @@
         <v>591</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1837,13 +1819,13 @@
         <v>1499</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,10 +1843,10 @@
         <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1879,7 +1861,7 @@
         <v>56</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1888,13 +1870,13 @@
         <v>678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,13 +1891,13 @@
         <v>935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1930,7 +1912,7 @@
         <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1939,13 +1921,13 @@
         <v>1615</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,13 +1942,13 @@
         <v>926</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1978,10 +1960,10 @@
         <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1990,13 +1972,13 @@
         <v>926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,13 +1993,13 @@
         <v>132797</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7">
         <v>120</v>
@@ -2026,13 +2008,13 @@
         <v>88444</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M15" s="7">
         <v>261</v>
@@ -2041,18 +2023,18 @@
         <v>221241</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2064,13 +2046,13 @@
         <v>450972</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>357</v>
@@ -2274,7 +2256,7 @@
         <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -2283,13 +2265,13 @@
         <v>21788</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -2298,13 +2280,13 @@
         <v>53969</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,13 +2301,13 @@
         <v>6591</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -2334,13 +2316,13 @@
         <v>15492</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -2349,13 +2331,13 @@
         <v>22083</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2352,13 @@
         <v>3384</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2385,13 +2367,13 @@
         <v>3913</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2400,13 +2382,13 @@
         <v>7296</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2403,13 @@
         <v>2671</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2436,13 +2418,13 @@
         <v>3461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2451,13 +2433,13 @@
         <v>6132</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,10 +2457,10 @@
         <v>56</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2487,13 +2469,13 @@
         <v>4056</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2502,13 +2484,13 @@
         <v>4056</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,13 +2505,13 @@
         <v>1708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2538,13 +2520,13 @@
         <v>1470</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2553,13 +2535,13 @@
         <v>3178</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2556,13 @@
         <v>3991</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2589,13 +2571,13 @@
         <v>804</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2604,13 +2586,13 @@
         <v>4796</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2607,13 @@
         <v>1234883</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27" s="7">
         <v>1265</v>
@@ -2640,13 +2622,13 @@
         <v>943271</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M27" s="7">
         <v>2358</v>
@@ -2655,18 +2637,18 @@
         <v>2178154</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2678,13 +2660,13 @@
         <v>164431</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H28" s="7">
         <v>202</v>
@@ -2693,13 +2675,13 @@
         <v>162930</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>347</v>
@@ -2708,13 +2690,13 @@
         <v>327361</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2711,13 @@
         <v>129879</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>193</v>
@@ -2744,13 +2726,13 @@
         <v>135315</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>321</v>
@@ -2759,13 +2741,13 @@
         <v>265194</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2762,13 @@
         <v>128366</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>192</v>
@@ -2795,13 +2777,13 @@
         <v>129276</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M30" s="7">
         <v>320</v>
@@ -2810,13 +2792,13 @@
         <v>257642</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2813,13 @@
         <v>25193</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>32</v>
@@ -2846,13 +2828,13 @@
         <v>21666</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>55</v>
@@ -2861,13 +2843,13 @@
         <v>46860</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2864,13 @@
         <v>12901</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -2897,13 +2879,13 @@
         <v>11354</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -2912,13 +2894,13 @@
         <v>24255</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2915,13 @@
         <v>4448</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -2948,13 +2930,13 @@
         <v>7218</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M33" s="7">
         <v>11</v>
@@ -2963,13 +2945,13 @@
         <v>11666</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2966,13 @@
         <v>917</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -2999,10 +2981,10 @@
         <v>2033</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>226</v>
@@ -3014,13 +2996,13 @@
         <v>2950</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>227</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +3020,10 @@
         <v>56</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3050,13 +3032,13 @@
         <v>1978</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -3065,13 +3047,13 @@
         <v>1978</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,10 +3071,10 @@
         <v>56</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3101,13 +3083,13 @@
         <v>652</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3116,13 +3098,13 @@
         <v>652</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,10 +3122,10 @@
         <v>56</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3155,10 +3137,10 @@
         <v>56</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3170,10 +3152,10 @@
         <v>56</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,10 +3173,10 @@
         <v>56</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3206,10 +3188,10 @@
         <v>56</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3221,10 +3203,10 @@
         <v>56</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3221,13 @@
         <v>466135</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H39" s="7">
         <v>650</v>
@@ -3254,13 +3236,13 @@
         <v>472423</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M39" s="7">
         <v>1087</v>
@@ -3269,13 +3251,13 @@
         <v>938558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3274,13 @@
         <v>653302</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H40" s="7">
         <v>593</v>
@@ -3307,13 +3289,13 @@
         <v>482673</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M40" s="7">
         <v>1179</v>
@@ -3322,13 +3304,13 @@
         <v>1135975</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3325,13 @@
         <v>523775</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H41" s="7">
         <v>520</v>
@@ -3358,13 +3340,13 @@
         <v>390291</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M41" s="7">
         <v>962</v>
@@ -3373,13 +3355,13 @@
         <v>914066</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3376,13 @@
         <v>460457</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H42" s="7">
         <v>647</v>
@@ -3409,13 +3391,13 @@
         <v>432100</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
         <v>1098</v>
@@ -3424,13 +3406,13 @@
         <v>892557</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3427,13 @@
         <v>115082</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H43" s="7">
         <v>153</v>
@@ -3460,13 +3442,13 @@
         <v>105307</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="M43" s="7">
         <v>265</v>
@@ -3475,13 +3457,13 @@
         <v>220389</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3478,13 @@
         <v>51836</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>87</v>
+        <v>267</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H44" s="7">
         <v>55</v>
@@ -3511,13 +3493,13 @@
         <v>40078</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M44" s="7">
         <v>106</v>
@@ -3526,13 +3508,13 @@
         <v>91914</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3529,13 @@
         <v>12852</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H45" s="7">
         <v>36</v>
@@ -3562,13 +3544,13 @@
         <v>32692</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M45" s="7">
         <v>48</v>
@@ -3580,10 +3562,10 @@
         <v>55</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>283</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3580,13 @@
         <v>5371</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="H46" s="7">
         <v>10</v>
@@ -3613,13 +3595,13 @@
         <v>6628</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>286</v>
+        <v>64</v>
       </c>
       <c r="M46" s="7">
         <v>15</v>
@@ -3628,13 +3610,13 @@
         <v>12000</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3631,13 @@
         <v>3578</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -3664,13 +3646,13 @@
         <v>6030</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M47" s="7">
         <v>14</v>
@@ -3679,13 +3661,13 @@
         <v>9609</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,10 +3685,10 @@
         <v>56</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="H48" s="7">
         <v>8</v>
@@ -3715,13 +3697,13 @@
         <v>5386</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="M48" s="7">
         <v>8</v>
@@ -3730,13 +3712,13 @@
         <v>5386</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>150</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3733,13 @@
         <v>2644</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="H49" s="7">
         <v>3</v>
@@ -3766,13 +3748,13 @@
         <v>2149</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c r="M49" s="7">
         <v>6</v>
@@ -3781,13 +3763,13 @@
         <v>4793</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3784,13 @@
         <v>4917</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -3817,13 +3799,13 @@
         <v>804</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
@@ -3832,13 +3814,13 @@
         <v>5721</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3835,13 @@
         <v>1833815</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H51" s="7">
         <v>2035</v>
@@ -3868,13 +3850,13 @@
         <v>1504139</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M51" s="7">
         <v>3706</v>
@@ -3883,18 +3865,18 @@
         <v>3337954</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB66E5D2-73AD-4985-A283-E5E909B4CB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA53D0B6-F9DA-4D9F-AD13-316ABBC2A171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2EC04D78-3B4C-4C07-A88D-21DE5C3FE5E4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D78020C1-849B-4E3D-A8D1-4E81A0C479FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="294">
   <si>
     <t>Población según su autopercepción de su capacidad laboral actual en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -68,832 +68,853 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>14,4%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1308,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBF9B58-4ED6-4CB4-9E2E-061705C7D87C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E57611-D60F-47D6-AB2A-4D1724649E70}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1429,7 +1450,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>37900</v>
+        <v>35747</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1444,7 +1465,7 @@
         <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>26265</v>
+        <v>23941</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -1459,7 +1480,7 @@
         <v>75</v>
       </c>
       <c r="N4" s="7">
-        <v>64164</v>
+        <v>59688</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1480,7 +1501,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>23707</v>
+        <v>24768</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1495,7 +1516,7 @@
         <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>16703</v>
+        <v>15058</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1510,7 +1531,7 @@
         <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>40410</v>
+        <v>39827</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1531,7 +1552,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="7">
-        <v>48506</v>
+        <v>48082</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -1546,7 +1567,7 @@
         <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>20385</v>
+        <v>19358</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>31</v>
@@ -1561,7 +1582,7 @@
         <v>77</v>
       </c>
       <c r="N6" s="7">
-        <v>68891</v>
+        <v>67440</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>34</v>
@@ -1582,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>10278</v>
+        <v>10652</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -1597,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>5543</v>
+        <v>5271</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1612,7 +1633,7 @@
         <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>15822</v>
+        <v>15923</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -1633,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>6755</v>
+        <v>6175</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>46</v>
@@ -1648,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>6936</v>
+        <v>5981</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -1663,7 +1684,7 @@
         <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>13690</v>
+        <v>12156</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>52</v>
@@ -1684,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>1812</v>
+        <v>1667</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>55</v>
@@ -1699,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>9982</v>
+        <v>7735</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -1714,7 +1735,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>11794</v>
+        <v>9403</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>61</v>
@@ -1735,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1071</v>
+        <v>1047</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>64</v>
@@ -1750,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>682</v>
+        <v>631</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>66</v>
@@ -1765,16 +1786,16 @@
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1753</v>
+        <v>1678</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,40 +1807,40 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>907</v>
+        <v>876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1499</v>
+        <v>1423</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>56</v>
@@ -1852,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>66</v>
@@ -1867,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>78</v>
@@ -1888,22 +1909,22 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>935</v>
+        <v>880</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>680</v>
+        <v>628</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>66</v>
@@ -1912,22 +1933,22 @@
         <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1615</v>
+        <v>1508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,16 +1960,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>926</v>
+        <v>889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1963,22 +1984,22 @@
         <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>926</v>
+        <v>889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,51 +2011,51 @@
         <v>141</v>
       </c>
       <c r="D15" s="7">
-        <v>132797</v>
+        <v>130784</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="7">
         <v>120</v>
       </c>
       <c r="I15" s="7">
-        <v>88444</v>
+        <v>79782</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M15" s="7">
         <v>261</v>
       </c>
       <c r="N15" s="7">
-        <v>221241</v>
+        <v>210566</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2043,46 +2064,46 @@
         <v>400</v>
       </c>
       <c r="D16" s="7">
-        <v>450972</v>
+        <v>421365</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>357</v>
       </c>
       <c r="I16" s="7">
-        <v>293478</v>
+        <v>288316</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>757</v>
       </c>
       <c r="N16" s="7">
-        <v>744450</v>
+        <v>709681</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,46 +2115,46 @@
         <v>286</v>
       </c>
       <c r="D17" s="7">
-        <v>370189</v>
+        <v>556429</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>304</v>
       </c>
       <c r="I17" s="7">
-        <v>238273</v>
+        <v>275052</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>590</v>
       </c>
       <c r="N17" s="7">
-        <v>608462</v>
+        <v>831481</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,46 +2166,46 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>283585</v>
+        <v>281399</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>423</v>
       </c>
       <c r="I18" s="7">
-        <v>282439</v>
+        <v>263092</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>701</v>
       </c>
       <c r="N18" s="7">
-        <v>566024</v>
+        <v>544491</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,46 +2217,46 @@
         <v>77</v>
       </c>
       <c r="D19" s="7">
-        <v>79610</v>
+        <v>74907</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
       </c>
       <c r="I19" s="7">
-        <v>78097</v>
+        <v>72369</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>186</v>
       </c>
       <c r="N19" s="7">
-        <v>157708</v>
+        <v>147276</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,46 +2268,46 @@
         <v>33</v>
       </c>
       <c r="D20" s="7">
-        <v>32181</v>
+        <v>30108</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
       </c>
       <c r="I20" s="7">
-        <v>21788</v>
+        <v>19708</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
       </c>
       <c r="N20" s="7">
-        <v>53969</v>
+        <v>49816</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,46 +2319,46 @@
         <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>6591</v>
+        <v>6266</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
       </c>
       <c r="I21" s="7">
-        <v>15492</v>
+        <v>14045</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
       </c>
       <c r="N21" s="7">
-        <v>22083</v>
+        <v>20311</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,46 +2370,46 @@
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>3384</v>
+        <v>3082</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>3913</v>
+        <v>3578</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
       </c>
       <c r="N22" s="7">
-        <v>7296</v>
+        <v>6660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2421,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>2671</v>
+        <v>2616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>151</v>
@@ -2415,7 +2436,7 @@
         <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>3461</v>
+        <v>3266</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>152</v>
@@ -2430,16 +2451,16 @@
         <v>8</v>
       </c>
       <c r="N23" s="7">
-        <v>6132</v>
+        <v>5882</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,37 +2481,37 @@
         <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>4056</v>
+        <v>3810</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>4056</v>
+        <v>3810</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,10 +2523,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>1708</v>
+        <v>1628</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>56</v>
@@ -2517,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>1470</v>
+        <v>1395</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>165</v>
@@ -2532,16 +2553,16 @@
         <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>3178</v>
+        <v>3024</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,46 +2574,46 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>3991</v>
+        <v>3885</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>4796</v>
+        <v>4656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,51 +2625,51 @@
         <v>1093</v>
       </c>
       <c r="D27" s="7">
-        <v>1234883</v>
+        <v>1381684</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="7">
         <v>1265</v>
       </c>
       <c r="I27" s="7">
-        <v>943271</v>
+        <v>945405</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M27" s="7">
         <v>2358</v>
       </c>
       <c r="N27" s="7">
-        <v>2178154</v>
+        <v>2327089</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2657,46 +2678,46 @@
         <v>145</v>
       </c>
       <c r="D28" s="7">
-        <v>164431</v>
+        <v>158812</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H28" s="7">
         <v>202</v>
       </c>
       <c r="I28" s="7">
-        <v>162930</v>
+        <v>148698</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>347</v>
       </c>
       <c r="N28" s="7">
-        <v>327361</v>
+        <v>307510</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,46 +2729,46 @@
         <v>128</v>
       </c>
       <c r="D29" s="7">
-        <v>129879</v>
+        <v>124969</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>193</v>
       </c>
       <c r="I29" s="7">
-        <v>135315</v>
+        <v>125966</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>321</v>
       </c>
       <c r="N29" s="7">
-        <v>265194</v>
+        <v>250936</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,46 +2780,46 @@
         <v>128</v>
       </c>
       <c r="D30" s="7">
-        <v>128366</v>
+        <v>124529</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>192</v>
       </c>
       <c r="I30" s="7">
-        <v>129276</v>
+        <v>122560</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>320</v>
       </c>
       <c r="N30" s="7">
-        <v>257642</v>
+        <v>247089</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,46 +2831,46 @@
         <v>23</v>
       </c>
       <c r="D31" s="7">
-        <v>25193</v>
+        <v>24499</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>32</v>
       </c>
       <c r="I31" s="7">
-        <v>21666</v>
+        <v>20015</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>55</v>
       </c>
       <c r="N31" s="7">
-        <v>46860</v>
+        <v>44514</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,46 +2882,46 @@
         <v>9</v>
       </c>
       <c r="D32" s="7">
-        <v>12901</v>
+        <v>12644</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
       </c>
       <c r="I32" s="7">
-        <v>11354</v>
+        <v>10293</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
       </c>
       <c r="N32" s="7">
-        <v>24255</v>
+        <v>22937</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,46 +2933,46 @@
         <v>3</v>
       </c>
       <c r="D33" s="7">
-        <v>4448</v>
+        <v>4272</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
       </c>
       <c r="I33" s="7">
-        <v>7218</v>
+        <v>6453</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M33" s="7">
         <v>11</v>
       </c>
       <c r="N33" s="7">
-        <v>11666</v>
+        <v>10725</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,28 +2984,28 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>917</v>
+        <v>869</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
       </c>
       <c r="I34" s="7">
-        <v>2033</v>
+        <v>1847</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>226</v>
@@ -2993,16 +3014,16 @@
         <v>4</v>
       </c>
       <c r="N34" s="7">
-        <v>2950</v>
+        <v>2715</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,37 +3044,37 @@
         <v>75</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
       </c>
       <c r="I35" s="7">
-        <v>1978</v>
+        <v>1858</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
       </c>
       <c r="N35" s="7">
-        <v>1978</v>
+        <v>1858</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,37 +3095,37 @@
         <v>75</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>652</v>
+        <v>601</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>652</v>
+        <v>601</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,7 +3146,7 @@
         <v>75</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3140,7 +3161,7 @@
         <v>75</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3155,7 +3176,7 @@
         <v>75</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,7 +3197,7 @@
         <v>75</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3191,7 +3212,7 @@
         <v>75</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3206,7 +3227,7 @@
         <v>75</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,46 +3239,46 @@
         <v>437</v>
       </c>
       <c r="D39" s="7">
-        <v>466135</v>
+        <v>450594</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H39" s="7">
         <v>650</v>
       </c>
       <c r="I39" s="7">
-        <v>472423</v>
+        <v>438290</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M39" s="7">
         <v>1087</v>
       </c>
       <c r="N39" s="7">
-        <v>938558</v>
+        <v>888885</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,46 +3292,46 @@
         <v>586</v>
       </c>
       <c r="D40" s="7">
-        <v>653302</v>
+        <v>615923</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H40" s="7">
         <v>593</v>
       </c>
       <c r="I40" s="7">
-        <v>482673</v>
+        <v>460955</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M40" s="7">
         <v>1179</v>
       </c>
       <c r="N40" s="7">
-        <v>1135975</v>
+        <v>1076879</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,46 +3343,46 @@
         <v>442</v>
       </c>
       <c r="D41" s="7">
-        <v>523775</v>
+        <v>706166</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H41" s="7">
         <v>520</v>
       </c>
       <c r="I41" s="7">
-        <v>390291</v>
+        <v>416076</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M41" s="7">
         <v>962</v>
       </c>
       <c r="N41" s="7">
-        <v>914066</v>
+        <v>1122243</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,10 +3394,10 @@
         <v>451</v>
       </c>
       <c r="D42" s="7">
-        <v>460457</v>
+        <v>454010</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>250</v>
@@ -3388,7 +3409,7 @@
         <v>647</v>
       </c>
       <c r="I42" s="7">
-        <v>432100</v>
+        <v>405010</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>252</v>
@@ -3403,7 +3424,7 @@
         <v>1098</v>
       </c>
       <c r="N42" s="7">
-        <v>892557</v>
+        <v>859021</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>255</v>
@@ -3424,7 +3445,7 @@
         <v>112</v>
       </c>
       <c r="D43" s="7">
-        <v>115082</v>
+        <v>110058</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>258</v>
@@ -3439,7 +3460,7 @@
         <v>153</v>
       </c>
       <c r="I43" s="7">
-        <v>105307</v>
+        <v>97655</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>261</v>
@@ -3448,22 +3469,22 @@
         <v>262</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="M43" s="7">
         <v>265</v>
       </c>
       <c r="N43" s="7">
-        <v>220389</v>
+        <v>207713</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3496,13 @@
         <v>51</v>
       </c>
       <c r="D44" s="7">
-        <v>51836</v>
+        <v>48927</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>267</v>
+        <v>85</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>268</v>
@@ -3490,7 +3511,7 @@
         <v>55</v>
       </c>
       <c r="I44" s="7">
-        <v>40078</v>
+        <v>35983</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>269</v>
@@ -3505,16 +3526,16 @@
         <v>106</v>
       </c>
       <c r="N44" s="7">
-        <v>91914</v>
+        <v>84909</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>272</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,46 +3547,46 @@
         <v>12</v>
       </c>
       <c r="D45" s="7">
-        <v>12852</v>
+        <v>12205</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H45" s="7">
         <v>36</v>
       </c>
       <c r="I45" s="7">
-        <v>32692</v>
+        <v>28234</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M45" s="7">
         <v>48</v>
       </c>
       <c r="N45" s="7">
-        <v>45544</v>
+        <v>40439</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,43 +3598,43 @@
         <v>5</v>
       </c>
       <c r="D46" s="7">
-        <v>5371</v>
+        <v>4997</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="H46" s="7">
         <v>10</v>
       </c>
       <c r="I46" s="7">
-        <v>6628</v>
+        <v>6056</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>164</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>64</v>
+        <v>283</v>
       </c>
       <c r="M46" s="7">
         <v>15</v>
       </c>
       <c r="N46" s="7">
-        <v>12000</v>
+        <v>11053</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>151</v>
@@ -3628,46 +3649,46 @@
         <v>5</v>
       </c>
       <c r="D47" s="7">
-        <v>3578</v>
+        <v>3492</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
       </c>
       <c r="I47" s="7">
-        <v>6030</v>
+        <v>5672</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="M47" s="7">
         <v>14</v>
       </c>
       <c r="N47" s="7">
-        <v>9609</v>
+        <v>9163</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,31 +3715,31 @@
         <v>8</v>
       </c>
       <c r="I48" s="7">
-        <v>5386</v>
+        <v>5041</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="M48" s="7">
         <v>8</v>
       </c>
       <c r="N48" s="7">
-        <v>5386</v>
+        <v>5041</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>165</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>283</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,46 +3751,46 @@
         <v>3</v>
       </c>
       <c r="D49" s="7">
-        <v>2644</v>
+        <v>2509</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H49" s="7">
         <v>3</v>
       </c>
       <c r="I49" s="7">
-        <v>2149</v>
+        <v>2024</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>167</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M49" s="7">
         <v>6</v>
       </c>
       <c r="N49" s="7">
-        <v>4793</v>
+        <v>4532</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,46 +3802,46 @@
         <v>4</v>
       </c>
       <c r="D50" s="7">
-        <v>4917</v>
+        <v>4774</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
       </c>
       <c r="I50" s="7">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
       </c>
       <c r="N50" s="7">
-        <v>5721</v>
+        <v>5546</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,51 +3853,51 @@
         <v>1671</v>
       </c>
       <c r="D51" s="7">
-        <v>1833815</v>
+        <v>1963062</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H51" s="7">
         <v>2035</v>
       </c>
       <c r="I51" s="7">
-        <v>1504139</v>
+        <v>1463477</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M51" s="7">
         <v>3706</v>
       </c>
       <c r="N51" s="7">
-        <v>3337954</v>
+        <v>3426540</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
